--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>ResBuff</t>
   </si>
@@ -165,10 +165,7 @@
     <t>测试buff1</t>
   </si>
   <si>
-    <t>101,102</t>
-  </si>
-  <si>
-    <t>测试buff2</t>
+    <t>Twinblades_Hit_Front</t>
   </si>
   <si>
     <t>ResBuffPartLogic</t>
@@ -254,7 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +272,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -283,14 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -299,26 +363,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,58 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -396,6 +393,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,54 +561,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,96 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,17 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,11 +643,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,26 +659,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +1195,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1211,8 +1208,9 @@
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="22.625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
@@ -1420,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1431,33 +1429,18 @@
         <v>41</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="6:6">
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1472,7 +1455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1491,7 +1474,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1549,22 +1532,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -1572,28 +1555,28 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:10">
       <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -1604,7 +1587,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1625,7 +1608,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1637,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -165,7 +165,7 @@
     <t>测试buff1</t>
   </si>
   <si>
-    <t>Twinblades_Hit_Front</t>
+    <t>behitback</t>
   </si>
   <si>
     <t>ResBuffPartLogic</t>
@@ -236,14 +236,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,89 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -347,38 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -393,97 +393,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,85 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,17 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +607,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,9 +652,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,28 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,8 +1194,8 @@
   <sheetPr/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1418,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:18">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1429,13 +1429,12 @@
         <v>41</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>0.3</v>
+      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>ResBuff</t>
   </si>
@@ -162,12 +162,48 @@
     <t>描述</t>
   </si>
   <si>
-    <t>测试buff1</t>
+    <t>测试击退</t>
+  </si>
+  <si>
+    <t>STIFFNESS</t>
   </si>
   <si>
     <t>behitback</t>
   </si>
   <si>
+    <t>测试击飞</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>befloat</t>
+  </si>
+  <si>
+    <t>测试倒地</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>GROUND</t>
+  </si>
+  <si>
+    <t>Anim_CS_KD_F_01</t>
+  </si>
+  <si>
+    <t>测试起身</t>
+  </si>
+  <si>
+    <t>GETUP</t>
+  </si>
+  <si>
+    <t>Anim_KD_get_up</t>
+  </si>
+  <si>
     <t>ResBuffPartLogic</t>
   </si>
   <si>
@@ -207,13 +243,19 @@
     <t>逻辑脚本</t>
   </si>
   <si>
-    <t>HOST_BUFF_ATTACH</t>
+    <t>触发倒地buff</t>
   </si>
   <si>
     <t>HOST_BUFF_DETACH</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>触发起身buff</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -221,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,6 +279,106 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,37 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -304,75 +415,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -393,37 +435,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,145 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,35 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +655,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +703,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,13 +1234,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
@@ -1431,15 +1473,91 @@
       <c r="E5" s="1">
         <v>0.3</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="6:6">
-      <c r="F6" s="2"/>
+    <row r="6" s="1" customFormat="1" spans="2:18">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:13">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:13">
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,7 +1572,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1473,7 +1591,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1531,22 +1649,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -1554,39 +1672,39 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:10">
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1597,17 +1715,19 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1619,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="bufff配置" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>ResBuff</t>
   </si>
@@ -162,19 +162,37 @@
     <t>描述</t>
   </si>
   <si>
-    <t>测试击退</t>
+    <t>测试受击硬直</t>
   </si>
   <si>
     <t>STIFFNESS</t>
   </si>
   <si>
-    <t>behitback</t>
+    <t>behit</t>
+  </si>
+  <si>
+    <t>测试击退近</t>
+  </si>
+  <si>
+    <t>behitback_near</t>
+  </si>
+  <si>
+    <t>测试击退中</t>
+  </si>
+  <si>
+    <t>behitback_middle</t>
+  </si>
+  <si>
+    <t>测试击退远</t>
+  </si>
+  <si>
+    <t>behitback_far</t>
   </si>
   <si>
     <t>测试击飞</t>
   </si>
   <si>
-    <t>201</t>
+    <t>10101</t>
   </si>
   <si>
     <t>FLOAT</t>
@@ -186,7 +204,7 @@
     <t>测试倒地</t>
   </si>
   <si>
-    <t>301</t>
+    <t>10201</t>
   </si>
   <si>
     <t>GROUND</t>
@@ -278,7 +296,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,39 +401,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,30 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -377,50 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -435,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +644,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,17 +682,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,46 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,145 +752,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,17 +1252,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
@@ -1253,7 +1272,7 @@
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="14" width="22.625" style="1" customWidth="1"/>
     <col min="15" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1494,22 +1513,29 @@
         <v>44</v>
       </c>
       <c r="E6" s="1">
-        <v>99999</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:13">
+    <row r="7" s="1" customFormat="1" spans="2:18">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1517,25 +1543,23 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>51</v>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:13">
+    <row r="8" s="1" customFormat="1" spans="2:18">
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1543,20 +1567,96 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:18">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:13">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:13">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1672,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1591,7 +1691,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1649,22 +1749,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -1672,39 +1772,39 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:10">
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
-        <v>201</v>
+        <v>10101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1716,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1">
-        <v>301</v>
+        <v>10201</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1739,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>ResBuff</t>
   </si>
@@ -111,6 +111,9 @@
     <t>script</t>
   </si>
   <si>
+    <t>overrideDistance</t>
+  </si>
+  <si>
     <t>buffID</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     <t>buff脚本</t>
   </si>
   <si>
+    <t>buff距离参数</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -168,49 +174,64 @@
     <t>STIFFNESS</t>
   </si>
   <si>
-    <t>behit</t>
+    <t>behit_direct</t>
   </si>
   <si>
     <t>测试击退近</t>
   </si>
   <si>
-    <t>behitback_near</t>
-  </si>
-  <si>
     <t>测试击退中</t>
   </si>
   <si>
-    <t>behitback_middle</t>
-  </si>
-  <si>
     <t>测试击退远</t>
   </si>
   <si>
-    <t>behitback_far</t>
-  </si>
-  <si>
-    <t>测试击飞</t>
-  </si>
-  <si>
-    <t>10101</t>
+    <t>测试击飞(高)</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
   <si>
     <t>FLOAT</t>
   </si>
   <si>
-    <t>befloat</t>
-  </si>
-  <si>
-    <t>测试倒地</t>
-  </si>
-  <si>
-    <t>10201</t>
+    <t>Be_Float_High</t>
+  </si>
+  <si>
+    <t>befloat_high</t>
+  </si>
+  <si>
+    <t>测试击飞(高)倒地</t>
+  </si>
+  <si>
+    <t>1101</t>
   </si>
   <si>
     <t>GROUND</t>
   </si>
   <si>
-    <t>Anim_CS_KD_F_01</t>
+    <t>Be_Float_High_Ground</t>
+  </si>
+  <si>
+    <t>测试击飞（低）</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>Be_Float_Low</t>
+  </si>
+  <si>
+    <t>befloat_low</t>
+  </si>
+  <si>
+    <t>测试击飞(低)倒地</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>Be_Float_Low_Ground</t>
   </si>
   <si>
     <t>测试起身</t>
@@ -219,7 +240,7 @@
     <t>GETUP</t>
   </si>
   <si>
-    <t>Anim_KD_get_up</t>
+    <t>Get_Up</t>
   </si>
   <si>
     <t>ResBuffPartLogic</t>
@@ -267,13 +288,16 @@
     <t>HOST_BUFF_DETACH</t>
   </si>
   <si>
-    <t>3</t>
+    <t>11</t>
   </si>
   <si>
     <t>触发起身buff</t>
   </si>
   <si>
-    <t>4</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -281,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -303,7 +327,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,32 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,28 +357,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,9 +380,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,13 +407,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,10 +419,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,37 +477,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,145 +615,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,26 +668,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -678,6 +682,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,47 +763,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,133 +788,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,17 +1276,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
@@ -1272,11 +1300,11 @@
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="14" width="22.625" style="1" customWidth="1"/>
     <col min="15" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="18" max="19" width="18.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,8 +1356,11 @@
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="3:18">
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1378,8 +1409,11 @@
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:18">
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1428,140 +1462,146 @@
       <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="3:18">
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19">
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>0.3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:18">
+        <v>45</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:19">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1">
         <v>0.3</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:18">
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:19">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>0.3</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:18">
+        <v>45</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:19">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1574,47 +1614,53 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:18">
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>99999</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="R9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:13">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>54</v>
@@ -1635,22 +1681,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:13">
+    <row r="11" s="1" customFormat="1" spans="2:18">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>99999</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1658,6 +1706,68 @@
       <c r="M11" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="R11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:13">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:13">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="6:6">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="6:6">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="6:6">
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1669,16 +1779,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="25.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
@@ -1686,12 +1796,13 @@
     <col min="8" max="8" width="17.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="16375" width="9" style="1"/>
+    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
+    <col min="12" max="16375" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1717,8 +1828,11 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:10">
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:11">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1743,68 +1857,77 @@
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:10">
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:11">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:10">
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:11">
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
-        <v>10101</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1816,18 +1939,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1">
-        <v>10201</v>
+        <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1839,7 +1962,53 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1201</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1301</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>ResBuff</t>
   </si>
@@ -243,6 +243,21 @@
     <t>Get_Up</t>
   </si>
   <si>
+    <t>垂直击飞</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>befloat_up</t>
+  </si>
+  <si>
+    <t>空中受击少量击飞</t>
+  </si>
+  <si>
+    <t>befloat_hit_up</t>
+  </si>
+  <si>
     <t>ResBuffPartLogic</t>
   </si>
   <si>
@@ -282,22 +297,19 @@
     <t>逻辑脚本</t>
   </si>
   <si>
-    <t>触发倒地buff</t>
-  </si>
-  <si>
     <t>HOST_BUFF_DETACH</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>触发起身buff</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>空中击中停顿</t>
   </si>
 </sst>
 </file>
@@ -305,9 +317,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -316,13 +328,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,10 +346,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,9 +369,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,19 +451,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,51 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -477,13 +489,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,31 +621,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,133 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,6 +680,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -686,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +741,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -733,41 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -776,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,18 +1291,18 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
@@ -1300,7 +1312,8 @@
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="14" width="22.625" style="1" customWidth="1"/>
     <col min="15" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="18.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1760,11 +1773,56 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="6:6">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="6:6">
+    <row r="14" s="1" customFormat="1" spans="2:18">
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:18">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="6:6">
       <c r="F16" s="2"/>
@@ -1779,16 +1837,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="25.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
@@ -1802,7 +1860,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1866,22 +1924,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -1892,28 +1950,28 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:11">
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
@@ -1921,13 +1979,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>1001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1939,18 +1997,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1962,18 +2020,18 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>1201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1985,18 +2043,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>1301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2008,7 +2066,53 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1501</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1601</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>ResBuff</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>测试击退远</t>
+  </si>
+  <si>
+    <t>测试击退很近</t>
   </si>
   <si>
     <t>测试击飞(高)</t>
@@ -317,10 +320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -332,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,9 +356,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,52 +402,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,30 +412,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,16 +427,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,13 +492,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,25 +576,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,120 +673,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +683,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,17 +740,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,50 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,145 +791,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,14 +1291,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1639,114 +1642,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:18">
+    <row r="9" s="1" customFormat="1" spans="2:19">
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="1">
-        <v>99999</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:13">
+        <v>45</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:18">
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:18">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1">
-        <v>99999</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:13">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:18">
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:13">
@@ -1754,52 +1758,49 @@
         <v>42</v>
       </c>
       <c r="C13" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:18">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:13">
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="1">
-        <v>99999</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:18">
@@ -1807,25 +1808,53 @@
         <v>42</v>
       </c>
       <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:18">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="6:6">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="2"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="6:6">
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,7 +1889,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1924,22 +1953,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -1950,28 +1979,28 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:11">
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
@@ -1979,13 +2008,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>1001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1997,18 +2026,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2020,18 +2049,18 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>1201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2043,18 +2072,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1">
         <v>1301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2066,18 +2095,18 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1">
         <v>1501</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2089,18 +2118,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>1601</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2112,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -331,13 +331,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,6 +395,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -456,14 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -478,6 +470,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -492,6 +492,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,7 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,55 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +600,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,67 +642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,16 +803,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,115 +821,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,7 +1298,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1790,7 +1790,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/tools/Data/Excels/buff配置.xlsx
+++ b/tools/Data/Excels/buff配置.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
   <si>
     <t>ResBuff</t>
   </si>
@@ -189,6 +189,27 @@
     <t>测试击退很近</t>
   </si>
   <si>
+    <t>击退远(倒地)</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>Be_Hit_Falldown</t>
+  </si>
+  <si>
+    <t>behit_and_face_to_caster</t>
+  </si>
+  <si>
+    <t>倒地</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>GROUND</t>
+  </si>
+  <si>
     <t>测试击飞(高)</t>
   </si>
   <si>
@@ -198,7 +219,7 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>Be_Float_High</t>
+    <t>Be_Float</t>
   </si>
   <si>
     <t>befloat_high</t>
@@ -210,10 +231,7 @@
     <t>1101</t>
   </si>
   <si>
-    <t>GROUND</t>
-  </si>
-  <si>
-    <t>Be_Float_High_Ground</t>
+    <t>Be_Float_Ground</t>
   </si>
   <si>
     <t>测试击飞（低）</t>
@@ -222,9 +240,6 @@
     <t>1201</t>
   </si>
   <si>
-    <t>Be_Float_Low</t>
-  </si>
-  <si>
     <t>befloat_low</t>
   </si>
   <si>
@@ -234,9 +249,6 @@
     <t>1301</t>
   </si>
   <si>
-    <t>Be_Float_Low_Ground</t>
-  </si>
-  <si>
     <t>测试起身</t>
   </si>
   <si>
@@ -313,6 +325,12 @@
   </si>
   <si>
     <t>空中击中停顿</t>
+  </si>
+  <si>
+    <t>测试击退(倒地)</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -321,9 +339,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -456,8 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,9 +489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +516,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,30 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,48 +564,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,6 +624,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -618,7 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,48 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,115 +821,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,13 +938,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,14 +1309,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1669,59 +1687,59 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:18">
+    <row r="10" s="1" customFormat="1" spans="2:19">
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="1">
-        <v>99999</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:13">
+      <c r="S10" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1">
         <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:18">
@@ -1729,28 +1747,28 @@
         <v>42</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1">
         <v>99999</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:13">
@@ -1758,103 +1776,158 @@
         <v>42</v>
       </c>
       <c r="C13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:13">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:18">
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:18">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:13">
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1">
-        <v>99999</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:13">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:18">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1">
+        <v>99999</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:18">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="6:6">
-      <c r="F17" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="6:6">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,10 +1939,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1889,7 +1962,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1953,22 +2026,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -1979,28 +2052,28 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:11">
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
@@ -2008,13 +2081,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>1001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2026,18 +2099,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2049,18 +2122,18 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>1201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2072,18 +2145,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
         <v>1301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2095,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1">
         <v>1501</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2118,18 +2191,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
         <v>1601</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2141,7 +2214,53 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1">
+        <v>601</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>701</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
